--- a/usuarios_data.xlsx
+++ b/usuarios_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,189 +463,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>111432f780df8cf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>seve</t>
+          <t>zypxurwfxa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>seve@mail.com</t>
+          <t>zypxurwfxa@example.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>46913.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>9382.75</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>33af6250ae4c6a3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>juan</t>
+          <t>eegdskyksw</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>juan@mail.om</t>
+          <t>eegdskyksw@example.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>85170.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>17034.13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>48f51f56f65cf563a5658c0074c3046f9fac29e904a3940ccf9e249f4835f7aa</t>
+          <t>9a655daa891e239</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hssvdtdzra</t>
+          <t>rxxefmsluf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>zgedvqc@sample.org</t>
+          <t>rxxefmsluf@example.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>565.81</t>
+          <t>53456.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>113.16</t>
+          <t>10691.28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>57723847246a76632bc6f305da20e684d78769235f5bc17f95915787d252db72</t>
+          <t>ba6303d24aa1a77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Piobldtazb</t>
+          <t>normihtfoj</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jbljduc@example.com</t>
+          <t>normihtfoj@example.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83433.82</t>
+          <t>70219.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16686.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>a07075bd18120e73169e66ce6294bedf36f68d5ec9af7bba9e91d868ac6de802</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tvnhcanqfv</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>iaenouh@example.com</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17993.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3598.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>e073b313b75b987f554279bb8589491b07b36090775285f34ee9c14adb48d443</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Snylwvohbm</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>xjqtfxu@test.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>68581.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13716.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>e5d9d422780a69187316dbca9aa78325926e22a89be4f32ae92fb901594bdb8e</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Itchzwwyvr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>wnoorbx@example.com</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15978.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3195.65</t>
+          <t>14043.98</t>
         </is>
       </c>
     </row>
